--- a/input/economics.xlsx
+++ b/input/economics.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\flexigrid\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chrissi\Git\Flexigrid\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336AAD6B-26A3-4A57-8C64-9F31B55C2EFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14390" yWindow="-20" windowWidth="14430" windowHeight="12860"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_economics" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,15 @@
     <sheet name="comp_economics" sheetId="12" r:id="rId6"/>
     <sheet name="further_parameters" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -249,31 +258,31 @@
     <t>[0 - 9999: 138]</t>
   </si>
   <si>
+    <t>[0 - 9999: 1]</t>
+  </si>
+  <si>
+    <t>[0 - 9999: 0.048]</t>
+  </si>
+  <si>
+    <t>[0 - 9999: 150]</t>
+  </si>
+  <si>
+    <t>price_sell_eeg</t>
+  </si>
+  <si>
+    <t>feed-in-tariff: EEG (10/2020) for PV plants up to 10 kW</t>
+  </si>
+  <si>
+    <t>[0 - 9999: 0.278]</t>
+  </si>
+  <si>
     <t>[0 - 9999: 0.1856]</t>
-  </si>
-  <si>
-    <t>[0 - 9999: 1]</t>
-  </si>
-  <si>
-    <t>[0 - 9999: 0.048]</t>
-  </si>
-  <si>
-    <t>[0 - 9999: 0.278]</t>
-  </si>
-  <si>
-    <t>[0 - 9999: 150]</t>
-  </si>
-  <si>
-    <t>price_sell_eeg</t>
-  </si>
-  <si>
-    <t>feed-in-tariff: EEG (10/2020) for PV plants up to 10 kW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,6 +432,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -458,6 +484,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,10 +676,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -789,7 +832,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>0.1018</v>
@@ -798,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -822,7 +865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -889,11 +932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -928,10 +971,10 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>0.56599999999999995</v>
@@ -951,10 +994,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>0.56599999999999995</v>
@@ -978,7 +1021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1016,10 +1059,10 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
       </c>
       <c r="D2">
         <v>2.5000000000000001E-2</v>
@@ -1037,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1178,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1299,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
